--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TODO</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Write Text Output</t>
+  </si>
+  <si>
+    <t>Ball Jumping Bug</t>
   </si>
 </sst>
 </file>
@@ -146,13 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,106 +449,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TODO</t>
   </si>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>Ball Jumping Bug</t>
+  </si>
+  <si>
+    <t>Stats Scene</t>
+  </si>
+  <si>
+    <t>Thank You Scene</t>
+  </si>
+  <si>
+    <t>Frisbee?</t>
+  </si>
+  <si>
+    <t>Restructuring page layout</t>
+  </si>
+  <si>
+    <t>High Priority</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Med-High</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Nearly Finished</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -90,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +151,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -157,6 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,18 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -459,103 +514,159 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -86,9 +86,6 @@
     <t>Frisbee?</t>
   </si>
   <si>
-    <t>Restructuring page layout</t>
-  </si>
-  <si>
     <t>High Priority</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>Restructuring Page Layout</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
       <c r="C3" s="9"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
       <c r="C4" s="7"/>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
       <c r="C5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
       <c r="C7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,10 +588,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
       <c r="C10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,14 +624,14 @@
         <v>14</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -663,7 +663,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="7"/>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,14 +659,14 @@
         <v>19</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -645,21 +645,21 @@
         <v>18</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>22</v>
